--- a/HMI C412 + Device List/Device List.xlsx
+++ b/HMI C412 + Device List/Device List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Device List</t>
   </si>
@@ -74,6 +74,60 @@
   </si>
   <si>
     <t>M800</t>
+  </si>
+  <si>
+    <t>M2000</t>
+  </si>
+  <si>
+    <t>M4000</t>
+  </si>
+  <si>
+    <t>D850</t>
+  </si>
+  <si>
+    <t>64B</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>1W</t>
+  </si>
+  <si>
+    <t>150W</t>
+  </si>
+  <si>
+    <t>M2500</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>D780</t>
+  </si>
+  <si>
+    <t>D800</t>
+  </si>
+  <si>
+    <t>D802</t>
+  </si>
+  <si>
+    <t>D805</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>2W</t>
+  </si>
+  <si>
+    <t>4W</t>
+  </si>
+  <si>
+    <t>Need Latch</t>
   </si>
 </sst>
 </file>
@@ -121,11 +175,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,23 +488,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:B23"/>
+  <dimension ref="A4:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -455,126 +513,245 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>19</v>
       </c>
-      <c r="B23">
-        <v>50</v>
-      </c>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
